--- a/每週買賣報表/還券資料T+2執行/還券-母檔.xlsx
+++ b/每週買賣報表/還券資料T+2執行/還券-母檔.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"> 還券標的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,79 +46,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瑞昱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仲琦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶豪科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穩懋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶宏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>威剛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敦泰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上緯投控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>致伸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立積</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祥碩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飛捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旺玖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台燿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樺漢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元太</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏捷科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至上</t>
+    <t>川湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金寶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志強-KY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,6 +123,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線單箭頭接點 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="314325"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線單箭頭接點 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="314325"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線單箭頭接點 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="314325"/>
+          <a:ext cx="581025" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,20 +543,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,282 +569,68 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
-        <v>44937</v>
+      <c r="H1" s="1">
+        <v>45035</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2379</v>
+        <v>2059</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>2427</v>
+        <v>2582</v>
+      </c>
+      <c r="F2">
+        <v>2650</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2419</v>
+        <v>2312</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>2427</v>
+        <v>2582</v>
+      </c>
+      <c r="F3">
+        <v>2650</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3006</v>
+        <v>6768</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3141</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3260</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3545</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3708</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4915</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4968</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5269</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6202</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6206</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>6233</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>22</v>
-      </c>
-      <c r="D15">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6274</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6414</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8069</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8086</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>8112</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>2427</v>
+        <v>2582</v>
+      </c>
+      <c r="F4">
+        <v>2650</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>